--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value508.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value508.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.761069885865716</v>
+        <v>1.231316089630127</v>
       </c>
       <c r="B1">
-        <v>3.000766538703898</v>
+        <v>2.505062341690063</v>
       </c>
       <c r="C1">
-        <v>3.058418263196502</v>
+        <v>4.384113311767578</v>
       </c>
       <c r="D1">
-        <v>0.8905413027971396</v>
+        <v>2.557069301605225</v>
       </c>
       <c r="E1">
-        <v>0.6378621507693227</v>
+        <v>1.077600836753845</v>
       </c>
     </row>
   </sheetData>
